--- a/Incorrect_prediction_info_SegAsUnits_2.xlsx
+++ b/Incorrect_prediction_info_SegAsUnits_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Imperial\Spring\Project\GitKraken\EEG_ChenYANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122828A6-E0FA-4773-9A69-3E77E64B5A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772BF055-6956-4AF6-A4EE-8293421D94D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="7">
   <si>
     <t>Segment index</t>
   </si>
@@ -28,13 +28,10 @@
     <t>True value</t>
   </si>
   <si>
-    <t>PreSeizure</t>
+    <t>PeriIctalSignals</t>
   </si>
   <si>
     <t>Seizure</t>
-  </si>
-  <si>
-    <t>AfterSeizure</t>
   </si>
   <si>
     <t>#ch pre as Seisure</t>
@@ -43,7 +40,7 @@
     <t>#ch pre as NonSeisure</t>
   </si>
   <si>
-    <t>#ch pre as PreSeisure</t>
+    <t>#ch pre as PeriIctalSignals</t>
   </si>
 </sst>
 </file>
@@ -117,17 +114,7 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.2524284979841438E-2"/>
-          <c:y val="3.2128514056224897E-2"/>
-          <c:w val="0.92823172876586302"/>
-          <c:h val="0.81977864212756535"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -171,184 +158,214 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$56</c:f>
+              <c:f>Sheet1!$A$2:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="14">
                   <c:v>111</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>113</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="17">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="18">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="19">
                   <c:v>116</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="20">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="21">
                   <c:v>118</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="22">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="23">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="24">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="25">
                   <c:v>122</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="26">
                   <c:v>123</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="28">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="29">
                   <c:v>126</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="30">
                   <c:v>127</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="31">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="32">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="33">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="34">
                   <c:v>131</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="35">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="36">
                   <c:v>133</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="37">
                   <c:v>134</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="38">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="39">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="40">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="41">
                   <c:v>138</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="42">
                   <c:v>139</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="43">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="44">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="45">
                   <c:v>142</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="46">
                   <c:v>143</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="47">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="48">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="49">
                   <c:v>146</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="50">
                   <c:v>147</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="51">
                   <c:v>148</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="52">
                   <c:v>149</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="53">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="54">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="55">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="56">
                   <c:v>153</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="57">
                   <c:v>154</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="58">
                   <c:v>155</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="59">
                   <c:v>156</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="60">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="61">
                   <c:v>158</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="62">
                   <c:v>159</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="63">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="64">
                   <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$56</c:f>
+              <c:f>Sheet1!$C$2:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -395,52 +412,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>30</c:v>
@@ -449,70 +466,100 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>29</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,7 +567,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1742-403E-8672-E515D7ED1148}"/>
+              <c16:uniqueId val="{00000000-C082-4D71-B7CB-B5223B880D4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -564,348 +611,408 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$56</c:f>
+              <c:f>Sheet1!$A$2:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="14">
                   <c:v>111</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>113</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="17">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="18">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="19">
                   <c:v>116</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="20">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="21">
                   <c:v>118</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="22">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="23">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="24">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="25">
                   <c:v>122</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="26">
                   <c:v>123</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="28">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="29">
                   <c:v>126</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="30">
                   <c:v>127</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="31">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="32">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="33">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="34">
                   <c:v>131</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="35">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="36">
                   <c:v>133</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="37">
                   <c:v>134</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="38">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="39">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="40">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="41">
                   <c:v>138</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="42">
                   <c:v>139</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="43">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="44">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="45">
                   <c:v>142</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="46">
                   <c:v>143</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="47">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="48">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="49">
                   <c:v>146</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="50">
                   <c:v>147</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="51">
                   <c:v>148</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="52">
                   <c:v>149</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="53">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="54">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="55">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="56">
                   <c:v>153</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="57">
                   <c:v>154</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="58">
                   <c:v>155</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="59">
                   <c:v>156</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="60">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="61">
                   <c:v>158</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="62">
                   <c:v>159</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="63">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="64">
                   <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$56</c:f>
+              <c:f>Sheet1!$D$2:$D$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="40">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="49">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>17</c:v>
+                <c:pt idx="55">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -913,7 +1020,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1742-403E-8672-E515D7ED1148}"/>
+              <c16:uniqueId val="{00000001-C082-4D71-B7CB-B5223B880D4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -926,7 +1033,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#ch pre as PreSeisure</c:v>
+                  <c:v>#ch pre as PeriIctalSignals</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -957,255 +1064,285 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$56</c:f>
+              <c:f>Sheet1!$A$2:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="14">
                   <c:v>111</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>113</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="17">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="18">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="19">
                   <c:v>116</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="20">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="21">
                   <c:v>118</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="22">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="23">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="24">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="25">
                   <c:v>122</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="26">
                   <c:v>123</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="28">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="29">
                   <c:v>126</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="30">
                   <c:v>127</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="31">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="32">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="33">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="34">
                   <c:v>131</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="35">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="36">
                   <c:v>133</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="37">
                   <c:v>134</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="38">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="39">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="40">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="41">
                   <c:v>138</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="42">
                   <c:v>139</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="43">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="44">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="45">
                   <c:v>142</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="46">
                   <c:v>143</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="47">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="48">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="49">
                   <c:v>146</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="50">
                   <c:v>147</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="51">
                   <c:v>148</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="52">
                   <c:v>149</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="53">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="54">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="55">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="56">
                   <c:v>153</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="57">
                   <c:v>154</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="58">
                   <c:v>155</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="59">
                   <c:v>156</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="60">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="61">
                   <c:v>158</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="62">
                   <c:v>159</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="63">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="64">
                   <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$56</c:f>
+              <c:f>Sheet1!$E$2:$E$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -1238,67 +1375,97 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1306,7 +1473,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1742-403E-8672-E515D7ED1148}"/>
+              <c16:uniqueId val="{00000002-C082-4D71-B7CB-B5223B880D4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1318,15 +1485,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1879073615"/>
-        <c:axId val="1879093295"/>
+        <c:axId val="598161632"/>
+        <c:axId val="598185632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1879073615"/>
+        <c:axId val="598161632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="164"/>
-          <c:min val="110"/>
+          <c:max val="161"/>
+          <c:min val="97"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1381,12 +1548,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879093295"/>
+        <c:crossAx val="598185632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1879093295"/>
+        <c:axId val="598185632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,7 +1610,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879073615"/>
+        <c:crossAx val="598161632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2090,23 +2257,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>845820</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8806B49A-9A98-5387-82DF-FA5B1D154FCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7060BB3E-211F-1611-97D6-516860ED25BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2444,19 +2611,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2467,18 +2634,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2487,15 +2654,15 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -2504,15 +2671,15 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2521,15 +2688,15 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2538,15 +2705,15 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2555,15 +2722,15 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2572,15 +2739,15 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2589,15 +2756,15 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2606,15 +2773,15 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2623,15 +2790,15 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2640,15 +2807,15 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -2657,15 +2824,15 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -2674,15 +2841,15 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -2691,15 +2858,15 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -2708,15 +2875,15 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -2725,24 +2892,24 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -2750,152 +2917,152 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2903,16 +3070,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2920,16 +3087,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2937,7 +3104,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -2954,16 +3121,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2971,7 +3138,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -2988,16 +3155,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3005,7 +3172,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -3022,7 +3189,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -3039,16 +3206,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -3056,365 +3223,534 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <v>4</v>
       </c>
-      <c r="C38">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>20</v>
-      </c>
       <c r="E38">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>8</v>
       </c>
-      <c r="D42">
-        <v>17</v>
-      </c>
       <c r="E42">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E45">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
         <v>6</v>
       </c>
-      <c r="D46">
-        <v>23</v>
-      </c>
       <c r="E46">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E50">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>152</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>30</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>153</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>30</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>154</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>30</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>155</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>29</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>156</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>30</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>157</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>30</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>158</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>30</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>159</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>30</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>160</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>30</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>161</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>19</v>
+      </c>
+      <c r="E66">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Incorrect_prediction_info_SegAsUnits_2.xlsx
+++ b/Incorrect_prediction_info_SegAsUnits_2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="504" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1224" uniqueCount="8">
   <si>
     <t>Segment index</t>
   </si>
@@ -1796,7 +1796,7 @@
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>2</v>
@@ -1805,15 +1805,15 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E2" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>2</v>
@@ -1822,15 +1822,15 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>2</v>
@@ -1839,15 +1839,15 @@
         <v>0</v>
       </c>
       <c r="D4" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>2</v>
@@ -1856,15 +1856,15 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>2</v>
@@ -1873,15 +1873,15 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>2</v>
@@ -1890,15 +1890,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>2</v>
@@ -1907,15 +1907,15 @@
         <v>0</v>
       </c>
       <c r="D8" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>2</v>
@@ -1924,15 +1924,15 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>2</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>2</v>
@@ -1958,129 +1958,129 @@
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E11" s="0">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D12" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E12" s="0">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D13" s="0">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E13" s="0">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="0">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D14" s="0">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E14" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="0">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D15" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E15" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.3">
       <c r="A16" s="0">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="0">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D16" s="0">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E16" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.3">
       <c r="A17" s="0">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="0">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D17" s="0">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E17" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.3">
       <c r="A18" s="0">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="0">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D18" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="0">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -2091,13 +2091,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -2108,13 +2108,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" s="0">
         <v>22</v>
       </c>
       <c r="E20" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2125,13 +2125,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E21" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2145,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2159,13 +2159,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E23" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2176,13 +2176,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24" s="0">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E24" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2193,10 +2193,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" s="0">
         <v>1</v>
@@ -2210,10 +2210,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D26" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E26" s="0">
         <v>0</v>
@@ -2244,10 +2244,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" s="0">
         <v>0</v>
@@ -2261,10 +2261,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D29" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E29" s="0">
         <v>0</v>
@@ -2278,10 +2278,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="0">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D30" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E30" s="0">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D31" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31" s="0">
         <v>0</v>
@@ -2312,10 +2312,10 @@
         <v>3</v>
       </c>
       <c r="C32" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D32" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E32" s="0">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D33" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E33" s="0">
         <v>0</v>
@@ -2346,10 +2346,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D34" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E34" s="0">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>3</v>
       </c>
       <c r="C35" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D35" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E35" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -2380,13 +2380,13 @@
         <v>3</v>
       </c>
       <c r="C36" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E36" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -2397,13 +2397,13 @@
         <v>2</v>
       </c>
       <c r="C37" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E37" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -2414,13 +2414,13 @@
         <v>2</v>
       </c>
       <c r="C38" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
@@ -2431,13 +2431,13 @@
         <v>2</v>
       </c>
       <c r="C39" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E39" s="0">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -2448,13 +2448,13 @@
         <v>2</v>
       </c>
       <c r="C40" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E40" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -2465,13 +2465,13 @@
         <v>2</v>
       </c>
       <c r="C41" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E41" s="0">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="D42" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E42" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -2499,13 +2499,13 @@
         <v>2</v>
       </c>
       <c r="C43" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E43" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -2519,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="D44" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E44" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="D45" s="0">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E45" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -2553,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="D46" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E46" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="D47" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E47" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="D48" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E48" s="0">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
@@ -2604,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="D49" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E49" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -2621,10 +2621,10 @@
         <v>0</v>
       </c>
       <c r="D50" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E50" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -2638,10 +2638,10 @@
         <v>0</v>
       </c>
       <c r="D51" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E51" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
@@ -2689,10 +2689,10 @@
         <v>0</v>
       </c>
       <c r="D54" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E54" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -2706,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="D55" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E55" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -2723,10 +2723,10 @@
         <v>0</v>
       </c>
       <c r="D56" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E56" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -2791,10 +2791,10 @@
         <v>0</v>
       </c>
       <c r="D60" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2808,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="D61" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E61" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2890,13 +2890,13 @@
         <v>2</v>
       </c>
       <c r="C66" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Incorrect_prediction_info_SegAsUnits_2.xlsx
+++ b/Incorrect_prediction_info_SegAsUnits_2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1224" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3249" uniqueCount="8">
   <si>
     <t>Segment index</t>
   </si>
@@ -1762,7 +1762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E401"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
@@ -1771,7 +1771,7 @@
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" customWidth="true"/>
-    <col min="2" max="2" width="13.109375" customWidth="true"/>
+    <col min="2" max="2" width="10.21875" customWidth="true"/>
     <col min="3" max="3" width="15.44140625" customWidth="true"/>
     <col min="4" max="4" width="18.88671875" customWidth="true"/>
     <col min="5" max="5" width="21.77734375" customWidth="true"/>
@@ -1796,10 +1796,10 @@
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -1813,27 +1813,27 @@
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -1847,95 +1847,95 @@
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0">
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0">
         <v>0</v>
       </c>
       <c r="D8" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10" s="0">
         <v>0</v>
@@ -1949,271 +1949,271 @@
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E11" s="0">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E12" s="0">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C13" s="0">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D13" s="0">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E13" s="0">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C14" s="0">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D14" s="0">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E14" s="0">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C15" s="0">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D15" s="0">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E15" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.3">
       <c r="A16" s="0">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C16" s="0">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D16" s="0">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E16" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.3">
       <c r="A17" s="0">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17" s="0">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D17" s="0">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E17" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.3">
       <c r="A18" s="0">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C18" s="0">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D18" s="0">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E18" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D19" s="0">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E19" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C20" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D20" s="0">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E20" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C21" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="0">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E21" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C22" s="0">
         <v>0</v>
       </c>
       <c r="D22" s="0">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E22" s="0">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C23" s="0">
         <v>0</v>
       </c>
       <c r="D23" s="0">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E23" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C24" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D24" s="0">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C25" s="0">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D25" s="0">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C26" s="0">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D26" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E26" s="0">
         <v>0</v>
@@ -2221,16 +2221,16 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C27" s="0">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D27" s="0">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E27" s="0">
         <v>0</v>
@@ -2238,33 +2238,33 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C28" s="0">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D28" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E28" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C29" s="0">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D29" s="0">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E29" s="0">
         <v>0</v>
@@ -2272,16 +2272,16 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C30" s="0">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D30" s="0">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E30" s="0">
         <v>0</v>
@@ -2289,16 +2289,16 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C31" s="0">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D31" s="0">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E31" s="0">
         <v>0</v>
@@ -2306,16 +2306,16 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C32" s="0">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D32" s="0">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E32" s="0">
         <v>0</v>
@@ -2323,16 +2323,16 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C33" s="0">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D33" s="0">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E33" s="0">
         <v>0</v>
@@ -2340,16 +2340,16 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C34" s="0">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D34" s="0">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E34" s="0">
         <v>0</v>
@@ -2357,384 +2357,384 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C35" s="0">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D35" s="0">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E35" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C36" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36" s="0">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E36" s="0">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C37" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E37" s="0">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C38" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38" s="0">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E38" s="0">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C39" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39" s="0">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E39" s="0">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C40" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40" s="0">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E40" s="0">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C41" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D41" s="0">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E41" s="0">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C42" s="0">
         <v>0</v>
       </c>
       <c r="D42" s="0">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E42" s="0">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E43" s="0">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C44" s="0">
         <v>0</v>
       </c>
       <c r="D44" s="0">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E44" s="0">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C45" s="0">
         <v>0</v>
       </c>
       <c r="D45" s="0">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E45" s="0">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C46" s="0">
         <v>0</v>
       </c>
       <c r="D46" s="0">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E46" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C47" s="0">
         <v>0</v>
       </c>
       <c r="D47" s="0">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E47" s="0">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C48" s="0">
         <v>0</v>
       </c>
       <c r="D48" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E48" s="0">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C49" s="0">
         <v>0</v>
       </c>
       <c r="D49" s="0">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E49" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C50" s="0">
         <v>0</v>
       </c>
       <c r="D50" s="0">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E50" s="0">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C51" s="0">
         <v>0</v>
       </c>
       <c r="D51" s="0">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E51" s="0">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C52" s="0">
         <v>0</v>
       </c>
       <c r="D52" s="0">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E52" s="0">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C53" s="0">
         <v>0</v>
       </c>
       <c r="D53" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E53" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C54" s="0">
         <v>0</v>
       </c>
       <c r="D54" s="0">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E54" s="0">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C55" s="0">
         <v>0</v>
       </c>
       <c r="D55" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E55" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C56" s="0">
         <v>0</v>
       </c>
       <c r="D56" s="0">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E56" s="0">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C57" s="0">
         <v>0</v>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C58" s="0">
         <v>0</v>
@@ -2765,10 +2765,10 @@
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C59" s="0">
         <v>0</v>
@@ -2782,16 +2782,16 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="0">
         <v>2</v>
       </c>
-      <c r="C60" s="0">
-        <v>0</v>
-      </c>
       <c r="D60" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E60" s="0">
         <v>0</v>
@@ -2799,50 +2799,50 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C61" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D61" s="0">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E61" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C62" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E62" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C63" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D63" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E63" s="0">
         <v>0</v>
@@ -2850,53 +2850,5748 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C64" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E64" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="0">
+        <v>0</v>
+      </c>
+      <c r="D65" s="0">
+        <v>28</v>
+      </c>
+      <c r="E65" s="0">
         <v>2</v>
-      </c>
-      <c r="C65" s="0">
-        <v>0</v>
-      </c>
-      <c r="D65" s="0">
-        <v>30</v>
-      </c>
-      <c r="E65" s="0">
-        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
+        <v>65</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="0">
+        <v>0</v>
+      </c>
+      <c r="D66" s="0">
+        <v>30</v>
+      </c>
+      <c r="E66" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>66</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="0">
+        <v>0</v>
+      </c>
+      <c r="D67" s="0">
+        <v>28</v>
+      </c>
+      <c r="E67" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>67</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="0">
+        <v>0</v>
+      </c>
+      <c r="D68" s="0">
+        <v>30</v>
+      </c>
+      <c r="E68" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="0">
+        <v>0</v>
+      </c>
+      <c r="D69" s="0">
+        <v>30</v>
+      </c>
+      <c r="E69" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>69</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="0">
+        <v>0</v>
+      </c>
+      <c r="D70" s="0">
+        <v>30</v>
+      </c>
+      <c r="E70" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="0">
+        <v>0</v>
+      </c>
+      <c r="D71" s="0">
+        <v>30</v>
+      </c>
+      <c r="E71" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>71</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="0">
+        <v>0</v>
+      </c>
+      <c r="D72" s="0">
+        <v>30</v>
+      </c>
+      <c r="E72" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>72</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="0">
+        <v>0</v>
+      </c>
+      <c r="D73" s="0">
+        <v>30</v>
+      </c>
+      <c r="E73" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>73</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="0">
+        <v>1</v>
+      </c>
+      <c r="D74" s="0">
+        <v>28</v>
+      </c>
+      <c r="E74" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>74</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="0">
+        <v>2</v>
+      </c>
+      <c r="D75" s="0">
+        <v>26</v>
+      </c>
+      <c r="E75" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>75</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="0">
+        <v>1</v>
+      </c>
+      <c r="D76" s="0">
+        <v>22</v>
+      </c>
+      <c r="E76" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>76</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="0">
+        <v>1</v>
+      </c>
+      <c r="D77" s="0">
+        <v>23</v>
+      </c>
+      <c r="E77" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>77</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="0">
+        <v>0</v>
+      </c>
+      <c r="D78" s="0">
+        <v>28</v>
+      </c>
+      <c r="E78" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>78</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="0">
+        <v>0</v>
+      </c>
+      <c r="D79" s="0">
+        <v>30</v>
+      </c>
+      <c r="E79" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>79</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="0">
+        <v>0</v>
+      </c>
+      <c r="D80" s="0">
+        <v>30</v>
+      </c>
+      <c r="E80" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>80</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="0">
+        <v>0</v>
+      </c>
+      <c r="D81" s="0">
+        <v>30</v>
+      </c>
+      <c r="E81" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>81</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="0">
+        <v>0</v>
+      </c>
+      <c r="D82" s="0">
+        <v>30</v>
+      </c>
+      <c r="E82" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>82</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="0">
+        <v>0</v>
+      </c>
+      <c r="D83" s="0">
+        <v>30</v>
+      </c>
+      <c r="E83" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>83</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="0">
+        <v>0</v>
+      </c>
+      <c r="D84" s="0">
+        <v>30</v>
+      </c>
+      <c r="E84" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>84</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="0">
+        <v>0</v>
+      </c>
+      <c r="D85" s="0">
+        <v>30</v>
+      </c>
+      <c r="E85" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>85</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="0">
+        <v>0</v>
+      </c>
+      <c r="D86" s="0">
+        <v>30</v>
+      </c>
+      <c r="E86" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>86</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="0">
+        <v>0</v>
+      </c>
+      <c r="D87" s="0">
+        <v>30</v>
+      </c>
+      <c r="E87" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
+        <v>87</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="0">
+        <v>0</v>
+      </c>
+      <c r="D88" s="0">
+        <v>30</v>
+      </c>
+      <c r="E88" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
+        <v>88</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="0">
+        <v>0</v>
+      </c>
+      <c r="D89" s="0">
+        <v>30</v>
+      </c>
+      <c r="E89" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
+        <v>89</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="0">
+        <v>0</v>
+      </c>
+      <c r="D90" s="0">
+        <v>30</v>
+      </c>
+      <c r="E90" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
+        <v>90</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="0">
+        <v>0</v>
+      </c>
+      <c r="D91" s="0">
+        <v>28</v>
+      </c>
+      <c r="E91" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>91</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="0">
+        <v>0</v>
+      </c>
+      <c r="D92" s="0">
+        <v>30</v>
+      </c>
+      <c r="E92" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>92</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="0">
+        <v>0</v>
+      </c>
+      <c r="D93" s="0">
+        <v>30</v>
+      </c>
+      <c r="E93" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>93</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="0">
+        <v>0</v>
+      </c>
+      <c r="D94" s="0">
+        <v>30</v>
+      </c>
+      <c r="E94" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>94</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="0">
+        <v>0</v>
+      </c>
+      <c r="D95" s="0">
+        <v>30</v>
+      </c>
+      <c r="E95" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>95</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="0">
+        <v>0</v>
+      </c>
+      <c r="D96" s="0">
+        <v>30</v>
+      </c>
+      <c r="E96" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>96</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="0">
+        <v>0</v>
+      </c>
+      <c r="D97" s="0">
+        <v>30</v>
+      </c>
+      <c r="E97" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>97</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="0">
+        <v>0</v>
+      </c>
+      <c r="D98" s="0">
+        <v>30</v>
+      </c>
+      <c r="E98" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>98</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="0">
+        <v>0</v>
+      </c>
+      <c r="D99" s="0">
+        <v>30</v>
+      </c>
+      <c r="E99" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>99</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="0">
+        <v>0</v>
+      </c>
+      <c r="D100" s="0">
+        <v>30</v>
+      </c>
+      <c r="E100" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>100</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="0">
+        <v>0</v>
+      </c>
+      <c r="D101" s="0">
+        <v>30</v>
+      </c>
+      <c r="E101" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
+        <v>101</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="0">
+        <v>0</v>
+      </c>
+      <c r="D102" s="0">
+        <v>30</v>
+      </c>
+      <c r="E102" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
+        <v>102</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="0">
+        <v>0</v>
+      </c>
+      <c r="D103" s="0">
+        <v>30</v>
+      </c>
+      <c r="E103" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
+        <v>103</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="0">
+        <v>0</v>
+      </c>
+      <c r="D104" s="0">
+        <v>30</v>
+      </c>
+      <c r="E104" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
+        <v>104</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="0">
+        <v>0</v>
+      </c>
+      <c r="D105" s="0">
+        <v>29</v>
+      </c>
+      <c r="E105" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>105</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="0">
+        <v>0</v>
+      </c>
+      <c r="D106" s="0">
+        <v>29</v>
+      </c>
+      <c r="E106" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>106</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="0">
+        <v>0</v>
+      </c>
+      <c r="D107" s="0">
+        <v>29</v>
+      </c>
+      <c r="E107" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
+        <v>107</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="0">
+        <v>0</v>
+      </c>
+      <c r="D108" s="0">
+        <v>29</v>
+      </c>
+      <c r="E108" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
+        <v>108</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="0">
+        <v>0</v>
+      </c>
+      <c r="D109" s="0">
+        <v>29</v>
+      </c>
+      <c r="E109" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>109</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="0">
+        <v>0</v>
+      </c>
+      <c r="D110" s="0">
+        <v>30</v>
+      </c>
+      <c r="E110" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>110</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="0">
+        <v>0</v>
+      </c>
+      <c r="D111" s="0">
+        <v>28</v>
+      </c>
+      <c r="E111" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>111</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="0">
+        <v>0</v>
+      </c>
+      <c r="D112" s="0">
+        <v>30</v>
+      </c>
+      <c r="E112" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
+        <v>112</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="0">
+        <v>0</v>
+      </c>
+      <c r="D113" s="0">
+        <v>30</v>
+      </c>
+      <c r="E113" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0">
+        <v>113</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="0">
+        <v>0</v>
+      </c>
+      <c r="D114" s="0">
+        <v>30</v>
+      </c>
+      <c r="E114" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0">
+        <v>114</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="0">
+        <v>0</v>
+      </c>
+      <c r="D115" s="0">
+        <v>30</v>
+      </c>
+      <c r="E115" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0">
+        <v>115</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="0">
+        <v>0</v>
+      </c>
+      <c r="D116" s="0">
+        <v>30</v>
+      </c>
+      <c r="E116" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0">
+        <v>116</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="0">
+        <v>0</v>
+      </c>
+      <c r="D117" s="0">
+        <v>30</v>
+      </c>
+      <c r="E117" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0">
+        <v>117</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="0">
+        <v>0</v>
+      </c>
+      <c r="D118" s="0">
+        <v>30</v>
+      </c>
+      <c r="E118" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0">
+        <v>118</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="0">
+        <v>0</v>
+      </c>
+      <c r="D119" s="0">
+        <v>30</v>
+      </c>
+      <c r="E119" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0">
+        <v>119</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="0">
+        <v>0</v>
+      </c>
+      <c r="D120" s="0">
+        <v>30</v>
+      </c>
+      <c r="E120" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0">
+        <v>120</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="0">
+        <v>0</v>
+      </c>
+      <c r="D121" s="0">
+        <v>30</v>
+      </c>
+      <c r="E121" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0">
+        <v>121</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="0">
+        <v>0</v>
+      </c>
+      <c r="D122" s="0">
+        <v>30</v>
+      </c>
+      <c r="E122" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0">
+        <v>122</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="0">
+        <v>0</v>
+      </c>
+      <c r="D123" s="0">
+        <v>30</v>
+      </c>
+      <c r="E123" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0">
+        <v>123</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="0">
+        <v>0</v>
+      </c>
+      <c r="D124" s="0">
+        <v>30</v>
+      </c>
+      <c r="E124" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0">
+        <v>124</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="0">
+        <v>0</v>
+      </c>
+      <c r="D125" s="0">
+        <v>30</v>
+      </c>
+      <c r="E125" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0">
+        <v>125</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="0">
+        <v>0</v>
+      </c>
+      <c r="D126" s="0">
+        <v>29</v>
+      </c>
+      <c r="E126" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0">
+        <v>126</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="0">
+        <v>1</v>
+      </c>
+      <c r="D127" s="0">
+        <v>21</v>
+      </c>
+      <c r="E127" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0">
+        <v>127</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="0">
+        <v>1</v>
+      </c>
+      <c r="D128" s="0">
+        <v>23</v>
+      </c>
+      <c r="E128" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0">
+        <v>128</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="0">
+        <v>1</v>
+      </c>
+      <c r="D129" s="0">
+        <v>21</v>
+      </c>
+      <c r="E129" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0">
+        <v>129</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="0">
+        <v>0</v>
+      </c>
+      <c r="D130" s="0">
+        <v>24</v>
+      </c>
+      <c r="E130" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0">
+        <v>130</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="0">
+        <v>1</v>
+      </c>
+      <c r="D131" s="0">
+        <v>28</v>
+      </c>
+      <c r="E131" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0">
+        <v>131</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="0">
+        <v>0</v>
+      </c>
+      <c r="D132" s="0">
+        <v>29</v>
+      </c>
+      <c r="E132" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0">
+        <v>132</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="0">
+        <v>0</v>
+      </c>
+      <c r="D133" s="0">
+        <v>28</v>
+      </c>
+      <c r="E133" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0">
+        <v>133</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="0">
+        <v>0</v>
+      </c>
+      <c r="D134" s="0">
+        <v>30</v>
+      </c>
+      <c r="E134" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0">
+        <v>134</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="0">
+        <v>0</v>
+      </c>
+      <c r="D135" s="0">
+        <v>30</v>
+      </c>
+      <c r="E135" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0">
+        <v>135</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="0">
+        <v>0</v>
+      </c>
+      <c r="D136" s="0">
+        <v>30</v>
+      </c>
+      <c r="E136" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0">
+        <v>136</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="0">
+        <v>0</v>
+      </c>
+      <c r="D137" s="0">
+        <v>29</v>
+      </c>
+      <c r="E137" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0">
+        <v>137</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="0">
+        <v>0</v>
+      </c>
+      <c r="D138" s="0">
+        <v>30</v>
+      </c>
+      <c r="E138" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0">
+        <v>138</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="0">
+        <v>0</v>
+      </c>
+      <c r="D139" s="0">
+        <v>30</v>
+      </c>
+      <c r="E139" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0">
+        <v>139</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="0">
+        <v>0</v>
+      </c>
+      <c r="D140" s="0">
+        <v>30</v>
+      </c>
+      <c r="E140" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0">
+        <v>140</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="0">
+        <v>0</v>
+      </c>
+      <c r="D141" s="0">
+        <v>30</v>
+      </c>
+      <c r="E141" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0">
+        <v>141</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="0">
+        <v>0</v>
+      </c>
+      <c r="D142" s="0">
+        <v>30</v>
+      </c>
+      <c r="E142" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0">
+        <v>142</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="0">
+        <v>0</v>
+      </c>
+      <c r="D143" s="0">
+        <v>30</v>
+      </c>
+      <c r="E143" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0">
+        <v>143</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="0">
+        <v>0</v>
+      </c>
+      <c r="D144" s="0">
+        <v>30</v>
+      </c>
+      <c r="E144" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0">
+        <v>144</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="0">
+        <v>0</v>
+      </c>
+      <c r="D145" s="0">
+        <v>30</v>
+      </c>
+      <c r="E145" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0">
+        <v>145</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="0">
+        <v>0</v>
+      </c>
+      <c r="D146" s="0">
+        <v>30</v>
+      </c>
+      <c r="E146" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0">
+        <v>146</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="0">
+        <v>0</v>
+      </c>
+      <c r="D147" s="0">
+        <v>30</v>
+      </c>
+      <c r="E147" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0">
+        <v>147</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="0">
+        <v>0</v>
+      </c>
+      <c r="D148" s="0">
+        <v>30</v>
+      </c>
+      <c r="E148" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0">
+        <v>148</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="0">
+        <v>0</v>
+      </c>
+      <c r="D149" s="0">
+        <v>30</v>
+      </c>
+      <c r="E149" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0">
+        <v>149</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="0">
+        <v>0</v>
+      </c>
+      <c r="D150" s="0">
+        <v>30</v>
+      </c>
+      <c r="E150" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0">
+        <v>150</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" s="0">
+        <v>0</v>
+      </c>
+      <c r="D151" s="0">
+        <v>30</v>
+      </c>
+      <c r="E151" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0">
+        <v>151</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="0">
+        <v>0</v>
+      </c>
+      <c r="D152" s="0">
+        <v>30</v>
+      </c>
+      <c r="E152" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0">
+        <v>152</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="0">
+        <v>0</v>
+      </c>
+      <c r="D153" s="0">
+        <v>30</v>
+      </c>
+      <c r="E153" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0">
+        <v>153</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="0">
+        <v>0</v>
+      </c>
+      <c r="D154" s="0">
+        <v>30</v>
+      </c>
+      <c r="E154" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0">
+        <v>154</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="0">
+        <v>0</v>
+      </c>
+      <c r="D155" s="0">
+        <v>30</v>
+      </c>
+      <c r="E155" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0">
+        <v>155</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="0">
+        <v>0</v>
+      </c>
+      <c r="D156" s="0">
+        <v>30</v>
+      </c>
+      <c r="E156" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0">
+        <v>156</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="0">
+        <v>0</v>
+      </c>
+      <c r="D157" s="0">
+        <v>30</v>
+      </c>
+      <c r="E157" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0">
+        <v>157</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="0">
+        <v>0</v>
+      </c>
+      <c r="D158" s="0">
+        <v>30</v>
+      </c>
+      <c r="E158" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0">
+        <v>158</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="0">
+        <v>0</v>
+      </c>
+      <c r="D159" s="0">
+        <v>30</v>
+      </c>
+      <c r="E159" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0">
+        <v>159</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="0">
+        <v>0</v>
+      </c>
+      <c r="D160" s="0">
+        <v>30</v>
+      </c>
+      <c r="E160" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0">
+        <v>160</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="0">
+        <v>0</v>
+      </c>
+      <c r="D161" s="0">
+        <v>30</v>
+      </c>
+      <c r="E161" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0">
         <v>161</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B162" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="0">
+        <v>0</v>
+      </c>
+      <c r="D162" s="0">
+        <v>30</v>
+      </c>
+      <c r="E162" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0">
+        <v>162</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="0">
+        <v>0</v>
+      </c>
+      <c r="D163" s="0">
+        <v>30</v>
+      </c>
+      <c r="E163" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0">
+        <v>163</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="0">
+        <v>0</v>
+      </c>
+      <c r="D164" s="0">
+        <v>30</v>
+      </c>
+      <c r="E164" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0">
+        <v>164</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="0">
+        <v>0</v>
+      </c>
+      <c r="D165" s="0">
+        <v>30</v>
+      </c>
+      <c r="E165" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0">
+        <v>165</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="0">
+        <v>4</v>
+      </c>
+      <c r="D166" s="0">
+        <v>23</v>
+      </c>
+      <c r="E166" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0">
+        <v>166</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="0">
         <v>2</v>
       </c>
-      <c r="C66" s="0">
+      <c r="D167" s="0">
+        <v>28</v>
+      </c>
+      <c r="E167" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0">
+        <v>167</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="0">
+        <v>9</v>
+      </c>
+      <c r="D168" s="0">
+        <v>17</v>
+      </c>
+      <c r="E168" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0">
+        <v>168</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="0">
+        <v>2</v>
+      </c>
+      <c r="D169" s="0">
+        <v>23</v>
+      </c>
+      <c r="E169" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0">
+        <v>169</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="0">
+        <v>0</v>
+      </c>
+      <c r="D170" s="0">
+        <v>17</v>
+      </c>
+      <c r="E170" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0">
+        <v>170</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="0">
+        <v>0</v>
+      </c>
+      <c r="D171" s="0">
+        <v>18</v>
+      </c>
+      <c r="E171" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0">
+        <v>171</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="0">
+        <v>0</v>
+      </c>
+      <c r="D172" s="0">
+        <v>30</v>
+      </c>
+      <c r="E172" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0">
+        <v>172</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="0">
+        <v>0</v>
+      </c>
+      <c r="D173" s="0">
+        <v>30</v>
+      </c>
+      <c r="E173" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0">
+        <v>173</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="0">
+        <v>0</v>
+      </c>
+      <c r="D174" s="0">
+        <v>30</v>
+      </c>
+      <c r="E174" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0">
+        <v>174</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="0">
+        <v>0</v>
+      </c>
+      <c r="D175" s="0">
+        <v>30</v>
+      </c>
+      <c r="E175" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0">
+        <v>175</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="0">
+        <v>0</v>
+      </c>
+      <c r="D176" s="0">
+        <v>30</v>
+      </c>
+      <c r="E176" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0">
+        <v>176</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="0">
+        <v>0</v>
+      </c>
+      <c r="D177" s="0">
+        <v>30</v>
+      </c>
+      <c r="E177" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0">
+        <v>177</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="0">
+        <v>0</v>
+      </c>
+      <c r="D178" s="0">
+        <v>29</v>
+      </c>
+      <c r="E178" s="0">
         <v>1</v>
       </c>
-      <c r="D66" s="0">
+    </row>
+    <row r="179">
+      <c r="A179" s="0">
+        <v>178</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="0">
+        <v>0</v>
+      </c>
+      <c r="D179" s="0">
+        <v>30</v>
+      </c>
+      <c r="E179" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0">
+        <v>179</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="0">
+        <v>0</v>
+      </c>
+      <c r="D180" s="0">
+        <v>30</v>
+      </c>
+      <c r="E180" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0">
+        <v>180</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" s="0">
+        <v>0</v>
+      </c>
+      <c r="D181" s="0">
+        <v>30</v>
+      </c>
+      <c r="E181" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0">
+        <v>181</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="0">
+        <v>0</v>
+      </c>
+      <c r="D182" s="0">
+        <v>30</v>
+      </c>
+      <c r="E182" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0">
+        <v>182</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="0">
+        <v>0</v>
+      </c>
+      <c r="D183" s="0">
+        <v>30</v>
+      </c>
+      <c r="E183" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0">
+        <v>183</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="0">
+        <v>0</v>
+      </c>
+      <c r="D184" s="0">
+        <v>30</v>
+      </c>
+      <c r="E184" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0">
+        <v>184</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="0">
+        <v>0</v>
+      </c>
+      <c r="D185" s="0">
+        <v>30</v>
+      </c>
+      <c r="E185" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0">
+        <v>185</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="0">
+        <v>0</v>
+      </c>
+      <c r="D186" s="0">
+        <v>30</v>
+      </c>
+      <c r="E186" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0">
+        <v>186</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="0">
+        <v>0</v>
+      </c>
+      <c r="D187" s="0">
+        <v>30</v>
+      </c>
+      <c r="E187" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0">
+        <v>187</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="0">
+        <v>1</v>
+      </c>
+      <c r="D188" s="0">
+        <v>25</v>
+      </c>
+      <c r="E188" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0">
+        <v>188</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="0">
+        <v>0</v>
+      </c>
+      <c r="D189" s="0">
+        <v>22</v>
+      </c>
+      <c r="E189" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0">
+        <v>189</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" s="0">
+        <v>0</v>
+      </c>
+      <c r="D190" s="0">
+        <v>26</v>
+      </c>
+      <c r="E190" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0">
+        <v>190</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="0">
+        <v>0</v>
+      </c>
+      <c r="D191" s="0">
+        <v>25</v>
+      </c>
+      <c r="E191" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0">
+        <v>191</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="0">
+        <v>0</v>
+      </c>
+      <c r="D192" s="0">
+        <v>26</v>
+      </c>
+      <c r="E192" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0">
+        <v>192</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="0">
+        <v>0</v>
+      </c>
+      <c r="D193" s="0">
+        <v>29</v>
+      </c>
+      <c r="E193" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0">
+        <v>193</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="0">
+        <v>0</v>
+      </c>
+      <c r="D194" s="0">
+        <v>17</v>
+      </c>
+      <c r="E194" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0">
+        <v>194</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="0">
+        <v>0</v>
+      </c>
+      <c r="D195" s="0">
+        <v>15</v>
+      </c>
+      <c r="E195" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0">
+        <v>195</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="0">
+        <v>0</v>
+      </c>
+      <c r="D196" s="0">
+        <v>15</v>
+      </c>
+      <c r="E196" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0">
+        <v>196</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="0">
+        <v>0</v>
+      </c>
+      <c r="D197" s="0">
+        <v>19</v>
+      </c>
+      <c r="E197" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0">
+        <v>197</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="0">
+        <v>0</v>
+      </c>
+      <c r="D198" s="0">
+        <v>26</v>
+      </c>
+      <c r="E198" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0">
+        <v>198</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="0">
+        <v>0</v>
+      </c>
+      <c r="D199" s="0">
+        <v>30</v>
+      </c>
+      <c r="E199" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0">
+        <v>199</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="0">
+        <v>0</v>
+      </c>
+      <c r="D200" s="0">
+        <v>30</v>
+      </c>
+      <c r="E200" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0">
+        <v>200</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="0">
+        <v>0</v>
+      </c>
+      <c r="D201" s="0">
+        <v>30</v>
+      </c>
+      <c r="E201" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0">
+        <v>201</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="0">
+        <v>0</v>
+      </c>
+      <c r="D202" s="0">
+        <v>30</v>
+      </c>
+      <c r="E202" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0">
+        <v>202</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="0">
+        <v>1</v>
+      </c>
+      <c r="D203" s="0">
+        <v>28</v>
+      </c>
+      <c r="E203" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0">
+        <v>203</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="0">
+        <v>0</v>
+      </c>
+      <c r="D204" s="0">
+        <v>24</v>
+      </c>
+      <c r="E204" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0">
+        <v>204</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="0">
+        <v>0</v>
+      </c>
+      <c r="D205" s="0">
+        <v>24</v>
+      </c>
+      <c r="E205" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0">
+        <v>205</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="0">
+        <v>0</v>
+      </c>
+      <c r="D206" s="0">
+        <v>24</v>
+      </c>
+      <c r="E206" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0">
+        <v>206</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" s="0">
+        <v>0</v>
+      </c>
+      <c r="D207" s="0">
+        <v>24</v>
+      </c>
+      <c r="E207" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0">
+        <v>207</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="0">
+        <v>0</v>
+      </c>
+      <c r="D208" s="0">
+        <v>30</v>
+      </c>
+      <c r="E208" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0">
+        <v>208</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="0">
+        <v>0</v>
+      </c>
+      <c r="D209" s="0">
+        <v>30</v>
+      </c>
+      <c r="E209" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0">
+        <v>209</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="0">
+        <v>0</v>
+      </c>
+      <c r="D210" s="0">
+        <v>30</v>
+      </c>
+      <c r="E210" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0">
+        <v>210</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="0">
+        <v>0</v>
+      </c>
+      <c r="D211" s="0">
+        <v>30</v>
+      </c>
+      <c r="E211" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0">
+        <v>211</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="0">
+        <v>0</v>
+      </c>
+      <c r="D212" s="0">
+        <v>30</v>
+      </c>
+      <c r="E212" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0">
+        <v>212</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="0">
+        <v>0</v>
+      </c>
+      <c r="D213" s="0">
+        <v>30</v>
+      </c>
+      <c r="E213" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0">
+        <v>213</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" s="0">
+        <v>0</v>
+      </c>
+      <c r="D214" s="0">
+        <v>30</v>
+      </c>
+      <c r="E214" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0">
+        <v>214</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" s="0">
+        <v>0</v>
+      </c>
+      <c r="D215" s="0">
+        <v>30</v>
+      </c>
+      <c r="E215" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0">
+        <v>215</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="0">
+        <v>0</v>
+      </c>
+      <c r="D216" s="0">
+        <v>30</v>
+      </c>
+      <c r="E216" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0">
+        <v>216</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="0">
+        <v>0</v>
+      </c>
+      <c r="D217" s="0">
+        <v>30</v>
+      </c>
+      <c r="E217" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0">
+        <v>217</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" s="0">
+        <v>0</v>
+      </c>
+      <c r="D218" s="0">
+        <v>30</v>
+      </c>
+      <c r="E218" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0">
+        <v>218</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="0">
+        <v>0</v>
+      </c>
+      <c r="D219" s="0">
+        <v>30</v>
+      </c>
+      <c r="E219" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0">
+        <v>219</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" s="0">
+        <v>0</v>
+      </c>
+      <c r="D220" s="0">
+        <v>30</v>
+      </c>
+      <c r="E220" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0">
+        <v>220</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" s="0">
+        <v>7</v>
+      </c>
+      <c r="D221" s="0">
+        <v>17</v>
+      </c>
+      <c r="E221" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0">
+        <v>221</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="0">
+        <v>4</v>
+      </c>
+      <c r="D222" s="0">
+        <v>22</v>
+      </c>
+      <c r="E222" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0">
+        <v>222</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" s="0">
+        <v>7</v>
+      </c>
+      <c r="D223" s="0">
+        <v>11</v>
+      </c>
+      <c r="E223" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0">
+        <v>223</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" s="0">
+        <v>4</v>
+      </c>
+      <c r="D224" s="0">
+        <v>24</v>
+      </c>
+      <c r="E224" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0">
+        <v>224</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" s="0">
+        <v>0</v>
+      </c>
+      <c r="D225" s="0">
+        <v>26</v>
+      </c>
+      <c r="E225" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0">
+        <v>225</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" s="0">
+        <v>0</v>
+      </c>
+      <c r="D226" s="0">
+        <v>26</v>
+      </c>
+      <c r="E226" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0">
+        <v>226</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" s="0">
+        <v>0</v>
+      </c>
+      <c r="D227" s="0">
+        <v>27</v>
+      </c>
+      <c r="E227" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0">
+        <v>227</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" s="0">
+        <v>1</v>
+      </c>
+      <c r="D228" s="0">
+        <v>21</v>
+      </c>
+      <c r="E228" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0">
+        <v>228</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" s="0">
+        <v>2</v>
+      </c>
+      <c r="D229" s="0">
+        <v>22</v>
+      </c>
+      <c r="E229" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0">
+        <v>229</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" s="0">
+        <v>3</v>
+      </c>
+      <c r="D230" s="0">
+        <v>17</v>
+      </c>
+      <c r="E230" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0">
+        <v>230</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" s="0">
+        <v>4</v>
+      </c>
+      <c r="D231" s="0">
+        <v>16</v>
+      </c>
+      <c r="E231" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0">
+        <v>231</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" s="0">
+        <v>0</v>
+      </c>
+      <c r="D232" s="0">
+        <v>15</v>
+      </c>
+      <c r="E232" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0">
+        <v>232</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" s="0">
+        <v>0</v>
+      </c>
+      <c r="D233" s="0">
+        <v>13</v>
+      </c>
+      <c r="E233" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0">
+        <v>233</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" s="0">
+        <v>1</v>
+      </c>
+      <c r="D234" s="0">
+        <v>12</v>
+      </c>
+      <c r="E234" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0">
+        <v>234</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" s="0">
+        <v>0</v>
+      </c>
+      <c r="D235" s="0">
+        <v>16</v>
+      </c>
+      <c r="E235" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0">
+        <v>235</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" s="0">
+        <v>0</v>
+      </c>
+      <c r="D236" s="0">
+        <v>16</v>
+      </c>
+      <c r="E236" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0">
+        <v>236</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" s="0">
+        <v>1</v>
+      </c>
+      <c r="D237" s="0">
+        <v>13</v>
+      </c>
+      <c r="E237" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0">
+        <v>237</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" s="0">
+        <v>0</v>
+      </c>
+      <c r="D238" s="0">
+        <v>19</v>
+      </c>
+      <c r="E238" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0">
+        <v>238</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" s="0">
+        <v>0</v>
+      </c>
+      <c r="D239" s="0">
+        <v>29</v>
+      </c>
+      <c r="E239" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0">
+        <v>239</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" s="0">
+        <v>0</v>
+      </c>
+      <c r="D240" s="0">
+        <v>30</v>
+      </c>
+      <c r="E240" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0">
+        <v>240</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" s="0">
+        <v>0</v>
+      </c>
+      <c r="D241" s="0">
+        <v>30</v>
+      </c>
+      <c r="E241" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0">
+        <v>241</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" s="0">
+        <v>0</v>
+      </c>
+      <c r="D242" s="0">
+        <v>30</v>
+      </c>
+      <c r="E242" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0">
+        <v>242</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" s="0">
+        <v>0</v>
+      </c>
+      <c r="D243" s="0">
+        <v>30</v>
+      </c>
+      <c r="E243" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0">
+        <v>243</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" s="0">
+        <v>0</v>
+      </c>
+      <c r="D244" s="0">
+        <v>30</v>
+      </c>
+      <c r="E244" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0">
+        <v>244</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="0">
+        <v>0</v>
+      </c>
+      <c r="D245" s="0">
+        <v>30</v>
+      </c>
+      <c r="E245" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0">
+        <v>245</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" s="0">
+        <v>0</v>
+      </c>
+      <c r="D246" s="0">
+        <v>30</v>
+      </c>
+      <c r="E246" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0">
+        <v>246</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" s="0">
+        <v>0</v>
+      </c>
+      <c r="D247" s="0">
+        <v>30</v>
+      </c>
+      <c r="E247" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0">
+        <v>247</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" s="0">
+        <v>0</v>
+      </c>
+      <c r="D248" s="0">
+        <v>30</v>
+      </c>
+      <c r="E248" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0">
+        <v>248</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" s="0">
+        <v>0</v>
+      </c>
+      <c r="D249" s="0">
+        <v>30</v>
+      </c>
+      <c r="E249" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0">
+        <v>249</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250" s="0">
+        <v>0</v>
+      </c>
+      <c r="D250" s="0">
+        <v>30</v>
+      </c>
+      <c r="E250" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0">
+        <v>250</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" s="0">
+        <v>0</v>
+      </c>
+      <c r="D251" s="0">
+        <v>29</v>
+      </c>
+      <c r="E251" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0">
+        <v>251</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252" s="0">
+        <v>0</v>
+      </c>
+      <c r="D252" s="0">
+        <v>30</v>
+      </c>
+      <c r="E252" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0">
+        <v>252</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" s="0">
+        <v>0</v>
+      </c>
+      <c r="D253" s="0">
+        <v>30</v>
+      </c>
+      <c r="E253" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0">
+        <v>253</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" s="0">
+        <v>0</v>
+      </c>
+      <c r="D254" s="0">
+        <v>30</v>
+      </c>
+      <c r="E254" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0">
+        <v>254</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255" s="0">
+        <v>0</v>
+      </c>
+      <c r="D255" s="0">
+        <v>30</v>
+      </c>
+      <c r="E255" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0">
+        <v>255</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" s="0">
+        <v>0</v>
+      </c>
+      <c r="D256" s="0">
+        <v>30</v>
+      </c>
+      <c r="E256" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0">
+        <v>256</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" s="0">
+        <v>0</v>
+      </c>
+      <c r="D257" s="0">
+        <v>30</v>
+      </c>
+      <c r="E257" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0">
+        <v>257</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" s="0">
+        <v>0</v>
+      </c>
+      <c r="D258" s="0">
+        <v>30</v>
+      </c>
+      <c r="E258" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0">
+        <v>258</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" s="0">
+        <v>0</v>
+      </c>
+      <c r="D259" s="0">
+        <v>30</v>
+      </c>
+      <c r="E259" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0">
+        <v>259</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260" s="0">
+        <v>0</v>
+      </c>
+      <c r="D260" s="0">
+        <v>30</v>
+      </c>
+      <c r="E260" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0">
+        <v>260</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" s="0">
+        <v>0</v>
+      </c>
+      <c r="D261" s="0">
+        <v>30</v>
+      </c>
+      <c r="E261" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0">
+        <v>261</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" s="0">
+        <v>0</v>
+      </c>
+      <c r="D262" s="0">
+        <v>30</v>
+      </c>
+      <c r="E262" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0">
+        <v>262</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" s="0">
+        <v>0</v>
+      </c>
+      <c r="D263" s="0">
+        <v>30</v>
+      </c>
+      <c r="E263" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0">
+        <v>263</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" s="0">
+        <v>0</v>
+      </c>
+      <c r="D264" s="0">
+        <v>30</v>
+      </c>
+      <c r="E264" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0">
+        <v>264</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" s="0">
+        <v>0</v>
+      </c>
+      <c r="D265" s="0">
+        <v>29</v>
+      </c>
+      <c r="E265" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0">
+        <v>265</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" s="0">
+        <v>0</v>
+      </c>
+      <c r="D266" s="0">
+        <v>25</v>
+      </c>
+      <c r="E266" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0">
+        <v>266</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" s="0">
+        <v>0</v>
+      </c>
+      <c r="D267" s="0">
+        <v>28</v>
+      </c>
+      <c r="E267" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0">
+        <v>267</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" s="0">
+        <v>0</v>
+      </c>
+      <c r="D268" s="0">
+        <v>28</v>
+      </c>
+      <c r="E268" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0">
+        <v>268</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" s="0">
+        <v>0</v>
+      </c>
+      <c r="D269" s="0">
+        <v>24</v>
+      </c>
+      <c r="E269" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0">
+        <v>269</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" s="0">
+        <v>0</v>
+      </c>
+      <c r="D270" s="0">
+        <v>27</v>
+      </c>
+      <c r="E270" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0">
+        <v>270</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" s="0">
+        <v>0</v>
+      </c>
+      <c r="D271" s="0">
+        <v>29</v>
+      </c>
+      <c r="E271" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0">
+        <v>271</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272" s="0">
+        <v>0</v>
+      </c>
+      <c r="D272" s="0">
+        <v>24</v>
+      </c>
+      <c r="E272" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0">
+        <v>272</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273" s="0">
+        <v>0</v>
+      </c>
+      <c r="D273" s="0">
+        <v>30</v>
+      </c>
+      <c r="E273" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0">
+        <v>273</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" s="0">
+        <v>0</v>
+      </c>
+      <c r="D274" s="0">
+        <v>30</v>
+      </c>
+      <c r="E274" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0">
+        <v>274</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" s="0">
+        <v>0</v>
+      </c>
+      <c r="D275" s="0">
+        <v>30</v>
+      </c>
+      <c r="E275" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0">
+        <v>275</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" s="0">
+        <v>0</v>
+      </c>
+      <c r="D276" s="0">
+        <v>30</v>
+      </c>
+      <c r="E276" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0">
+        <v>276</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" s="0">
+        <v>0</v>
+      </c>
+      <c r="D277" s="0">
+        <v>30</v>
+      </c>
+      <c r="E277" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0">
+        <v>277</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278" s="0">
+        <v>0</v>
+      </c>
+      <c r="D278" s="0">
+        <v>30</v>
+      </c>
+      <c r="E278" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0">
+        <v>278</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" s="0">
+        <v>0</v>
+      </c>
+      <c r="D279" s="0">
+        <v>29</v>
+      </c>
+      <c r="E279" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0">
+        <v>279</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280" s="0">
+        <v>0</v>
+      </c>
+      <c r="D280" s="0">
+        <v>29</v>
+      </c>
+      <c r="E280" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0">
+        <v>280</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281" s="0">
+        <v>0</v>
+      </c>
+      <c r="D281" s="0">
+        <v>29</v>
+      </c>
+      <c r="E281" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0">
+        <v>281</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" s="0">
+        <v>0</v>
+      </c>
+      <c r="D282" s="0">
+        <v>29</v>
+      </c>
+      <c r="E282" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0">
+        <v>282</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C283" s="0">
+        <v>0</v>
+      </c>
+      <c r="D283" s="0">
+        <v>30</v>
+      </c>
+      <c r="E283" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0">
+        <v>283</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284" s="0">
+        <v>0</v>
+      </c>
+      <c r="D284" s="0">
+        <v>30</v>
+      </c>
+      <c r="E284" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0">
+        <v>284</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285" s="0">
+        <v>0</v>
+      </c>
+      <c r="D285" s="0">
+        <v>30</v>
+      </c>
+      <c r="E285" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0">
+        <v>285</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" s="0">
+        <v>0</v>
+      </c>
+      <c r="D286" s="0">
+        <v>30</v>
+      </c>
+      <c r="E286" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0">
+        <v>286</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287" s="0">
+        <v>0</v>
+      </c>
+      <c r="D287" s="0">
+        <v>30</v>
+      </c>
+      <c r="E287" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0">
+        <v>287</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" s="0">
+        <v>0</v>
+      </c>
+      <c r="D288" s="0">
+        <v>30</v>
+      </c>
+      <c r="E288" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0">
+        <v>288</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" s="0">
+        <v>0</v>
+      </c>
+      <c r="D289" s="0">
+        <v>30</v>
+      </c>
+      <c r="E289" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0">
+        <v>289</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" s="0">
+        <v>0</v>
+      </c>
+      <c r="D290" s="0">
+        <v>30</v>
+      </c>
+      <c r="E290" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0">
+        <v>290</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" s="0">
+        <v>6</v>
+      </c>
+      <c r="D291" s="0">
+        <v>23</v>
+      </c>
+      <c r="E291" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0">
+        <v>291</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" s="0">
+        <v>0</v>
+      </c>
+      <c r="D292" s="0">
+        <v>21</v>
+      </c>
+      <c r="E292" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0">
+        <v>292</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" s="0">
+        <v>1</v>
+      </c>
+      <c r="D293" s="0">
+        <v>22</v>
+      </c>
+      <c r="E293" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0">
+        <v>293</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" s="0">
+        <v>0</v>
+      </c>
+      <c r="D294" s="0">
+        <v>24</v>
+      </c>
+      <c r="E294" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0">
+        <v>294</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" s="0">
+        <v>0</v>
+      </c>
+      <c r="D295" s="0">
+        <v>22</v>
+      </c>
+      <c r="E295" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0">
+        <v>295</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" s="0">
+        <v>0</v>
+      </c>
+      <c r="D296" s="0">
+        <v>30</v>
+      </c>
+      <c r="E296" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0">
+        <v>296</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" s="0">
+        <v>0</v>
+      </c>
+      <c r="D297" s="0">
+        <v>30</v>
+      </c>
+      <c r="E297" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0">
+        <v>297</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298" s="0">
+        <v>0</v>
+      </c>
+      <c r="D298" s="0">
+        <v>30</v>
+      </c>
+      <c r="E298" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0">
+        <v>298</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" s="0">
+        <v>0</v>
+      </c>
+      <c r="D299" s="0">
+        <v>30</v>
+      </c>
+      <c r="E299" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0">
+        <v>299</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" s="0">
+        <v>0</v>
+      </c>
+      <c r="D300" s="0">
+        <v>30</v>
+      </c>
+      <c r="E300" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="0">
+        <v>300</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301" s="0">
+        <v>0</v>
+      </c>
+      <c r="D301" s="0">
+        <v>30</v>
+      </c>
+      <c r="E301" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="0">
+        <v>301</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C302" s="0">
+        <v>0</v>
+      </c>
+      <c r="D302" s="0">
+        <v>30</v>
+      </c>
+      <c r="E302" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="0">
+        <v>302</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" s="0">
+        <v>0</v>
+      </c>
+      <c r="D303" s="0">
+        <v>30</v>
+      </c>
+      <c r="E303" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="0">
+        <v>303</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C304" s="0">
+        <v>0</v>
+      </c>
+      <c r="D304" s="0">
+        <v>30</v>
+      </c>
+      <c r="E304" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="0">
+        <v>304</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C305" s="0">
+        <v>0</v>
+      </c>
+      <c r="D305" s="0">
+        <v>30</v>
+      </c>
+      <c r="E305" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="0">
+        <v>305</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306" s="0">
+        <v>0</v>
+      </c>
+      <c r="D306" s="0">
+        <v>28</v>
+      </c>
+      <c r="E306" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="0">
+        <v>306</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C307" s="0">
+        <v>0</v>
+      </c>
+      <c r="D307" s="0">
+        <v>21</v>
+      </c>
+      <c r="E307" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="0">
+        <v>307</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C308" s="0">
+        <v>0</v>
+      </c>
+      <c r="D308" s="0">
+        <v>27</v>
+      </c>
+      <c r="E308" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="0">
+        <v>308</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309" s="0">
+        <v>0</v>
+      </c>
+      <c r="D309" s="0">
+        <v>19</v>
+      </c>
+      <c r="E309" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="0">
+        <v>309</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C310" s="0">
+        <v>0</v>
+      </c>
+      <c r="D310" s="0">
+        <v>26</v>
+      </c>
+      <c r="E310" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="0">
+        <v>310</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311" s="0">
+        <v>0</v>
+      </c>
+      <c r="D311" s="0">
+        <v>30</v>
+      </c>
+      <c r="E311" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="0">
+        <v>311</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" s="0">
+        <v>0</v>
+      </c>
+      <c r="D312" s="0">
+        <v>30</v>
+      </c>
+      <c r="E312" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="0">
+        <v>312</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C313" s="0">
+        <v>0</v>
+      </c>
+      <c r="D313" s="0">
+        <v>29</v>
+      </c>
+      <c r="E313" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="0">
+        <v>313</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314" s="0">
+        <v>0</v>
+      </c>
+      <c r="D314" s="0">
+        <v>30</v>
+      </c>
+      <c r="E314" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="0">
+        <v>314</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315" s="0">
+        <v>0</v>
+      </c>
+      <c r="D315" s="0">
+        <v>27</v>
+      </c>
+      <c r="E315" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="0">
+        <v>315</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316" s="0">
+        <v>0</v>
+      </c>
+      <c r="D316" s="0">
+        <v>30</v>
+      </c>
+      <c r="E316" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="0">
+        <v>316</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317" s="0">
+        <v>0</v>
+      </c>
+      <c r="D317" s="0">
+        <v>29</v>
+      </c>
+      <c r="E317" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="0">
+        <v>317</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" s="0">
+        <v>0</v>
+      </c>
+      <c r="D318" s="0">
+        <v>30</v>
+      </c>
+      <c r="E318" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="0">
+        <v>318</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319" s="0">
+        <v>0</v>
+      </c>
+      <c r="D319" s="0">
+        <v>30</v>
+      </c>
+      <c r="E319" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="0">
+        <v>319</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C320" s="0">
+        <v>0</v>
+      </c>
+      <c r="D320" s="0">
+        <v>30</v>
+      </c>
+      <c r="E320" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="0">
+        <v>320</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" s="0">
+        <v>0</v>
+      </c>
+      <c r="D321" s="0">
+        <v>30</v>
+      </c>
+      <c r="E321" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="0">
+        <v>321</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C322" s="0">
+        <v>0</v>
+      </c>
+      <c r="D322" s="0">
+        <v>29</v>
+      </c>
+      <c r="E322" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="0">
+        <v>322</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C323" s="0">
+        <v>0</v>
+      </c>
+      <c r="D323" s="0">
+        <v>30</v>
+      </c>
+      <c r="E323" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="0">
+        <v>323</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324" s="0">
+        <v>0</v>
+      </c>
+      <c r="D324" s="0">
+        <v>30</v>
+      </c>
+      <c r="E324" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="0">
+        <v>324</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325" s="0">
+        <v>0</v>
+      </c>
+      <c r="D325" s="0">
+        <v>16</v>
+      </c>
+      <c r="E325" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="0">
+        <v>325</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C326" s="0">
+        <v>0</v>
+      </c>
+      <c r="D326" s="0">
+        <v>20</v>
+      </c>
+      <c r="E326" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="0">
+        <v>326</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C327" s="0">
+        <v>0</v>
+      </c>
+      <c r="D327" s="0">
+        <v>15</v>
+      </c>
+      <c r="E327" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="0">
+        <v>327</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328" s="0">
+        <v>0</v>
+      </c>
+      <c r="D328" s="0">
+        <v>16</v>
+      </c>
+      <c r="E328" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="0">
+        <v>328</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329" s="0">
+        <v>0</v>
+      </c>
+      <c r="D329" s="0">
+        <v>29</v>
+      </c>
+      <c r="E329" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="0">
+        <v>329</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330" s="0">
+        <v>0</v>
+      </c>
+      <c r="D330" s="0">
+        <v>29</v>
+      </c>
+      <c r="E330" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="0">
+        <v>330</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C331" s="0">
+        <v>0</v>
+      </c>
+      <c r="D331" s="0">
+        <v>30</v>
+      </c>
+      <c r="E331" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="0">
+        <v>331</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C332" s="0">
+        <v>0</v>
+      </c>
+      <c r="D332" s="0">
+        <v>30</v>
+      </c>
+      <c r="E332" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="0">
+        <v>332</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C333" s="0">
+        <v>0</v>
+      </c>
+      <c r="D333" s="0">
+        <v>30</v>
+      </c>
+      <c r="E333" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="0">
+        <v>333</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C334" s="0">
+        <v>0</v>
+      </c>
+      <c r="D334" s="0">
+        <v>30</v>
+      </c>
+      <c r="E334" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="0">
+        <v>334</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C335" s="0">
+        <v>0</v>
+      </c>
+      <c r="D335" s="0">
+        <v>30</v>
+      </c>
+      <c r="E335" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="0">
+        <v>335</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336" s="0">
+        <v>0</v>
+      </c>
+      <c r="D336" s="0">
+        <v>30</v>
+      </c>
+      <c r="E336" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="0">
+        <v>336</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C337" s="0">
+        <v>0</v>
+      </c>
+      <c r="D337" s="0">
+        <v>30</v>
+      </c>
+      <c r="E337" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="0">
+        <v>337</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338" s="0">
+        <v>0</v>
+      </c>
+      <c r="D338" s="0">
+        <v>30</v>
+      </c>
+      <c r="E338" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="0">
+        <v>338</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339" s="0">
+        <v>0</v>
+      </c>
+      <c r="D339" s="0">
+        <v>30</v>
+      </c>
+      <c r="E339" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="0">
+        <v>339</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C340" s="0">
+        <v>0</v>
+      </c>
+      <c r="D340" s="0">
+        <v>30</v>
+      </c>
+      <c r="E340" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="0">
+        <v>340</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C341" s="0">
+        <v>0</v>
+      </c>
+      <c r="D341" s="0">
+        <v>30</v>
+      </c>
+      <c r="E341" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="0">
+        <v>341</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C342" s="0">
+        <v>0</v>
+      </c>
+      <c r="D342" s="0">
+        <v>30</v>
+      </c>
+      <c r="E342" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="0">
+        <v>342</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343" s="0">
+        <v>0</v>
+      </c>
+      <c r="D343" s="0">
+        <v>30</v>
+      </c>
+      <c r="E343" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="0">
+        <v>343</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C344" s="0">
+        <v>0</v>
+      </c>
+      <c r="D344" s="0">
+        <v>30</v>
+      </c>
+      <c r="E344" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="0">
+        <v>344</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345" s="0">
+        <v>0</v>
+      </c>
+      <c r="D345" s="0">
+        <v>30</v>
+      </c>
+      <c r="E345" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="0">
+        <v>345</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" s="0">
+        <v>0</v>
+      </c>
+      <c r="D346" s="0">
+        <v>30</v>
+      </c>
+      <c r="E346" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="0">
+        <v>346</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347" s="0">
+        <v>0</v>
+      </c>
+      <c r="D347" s="0">
+        <v>30</v>
+      </c>
+      <c r="E347" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="0">
+        <v>347</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C348" s="0">
+        <v>0</v>
+      </c>
+      <c r="D348" s="0">
+        <v>29</v>
+      </c>
+      <c r="E348" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="0">
+        <v>348</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349" s="0">
+        <v>0</v>
+      </c>
+      <c r="D349" s="0">
+        <v>30</v>
+      </c>
+      <c r="E349" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="0">
+        <v>349</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C350" s="0">
+        <v>0</v>
+      </c>
+      <c r="D350" s="0">
+        <v>30</v>
+      </c>
+      <c r="E350" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="0">
+        <v>350</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C351" s="0">
+        <v>0</v>
+      </c>
+      <c r="D351" s="0">
+        <v>30</v>
+      </c>
+      <c r="E351" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="0">
+        <v>351</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C352" s="0">
+        <v>0</v>
+      </c>
+      <c r="D352" s="0">
+        <v>30</v>
+      </c>
+      <c r="E352" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="0">
+        <v>352</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C353" s="0">
+        <v>0</v>
+      </c>
+      <c r="D353" s="0">
+        <v>30</v>
+      </c>
+      <c r="E353" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="0">
+        <v>353</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354" s="0">
+        <v>0</v>
+      </c>
+      <c r="D354" s="0">
+        <v>30</v>
+      </c>
+      <c r="E354" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="0">
+        <v>354</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355" s="0">
+        <v>0</v>
+      </c>
+      <c r="D355" s="0">
+        <v>30</v>
+      </c>
+      <c r="E355" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="0">
+        <v>355</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356" s="0">
+        <v>0</v>
+      </c>
+      <c r="D356" s="0">
+        <v>30</v>
+      </c>
+      <c r="E356" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="0">
+        <v>356</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357" s="0">
+        <v>0</v>
+      </c>
+      <c r="D357" s="0">
+        <v>30</v>
+      </c>
+      <c r="E357" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="0">
+        <v>357</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C358" s="0">
+        <v>0</v>
+      </c>
+      <c r="D358" s="0">
+        <v>30</v>
+      </c>
+      <c r="E358" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="0">
+        <v>358</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C359" s="0">
+        <v>0</v>
+      </c>
+      <c r="D359" s="0">
+        <v>30</v>
+      </c>
+      <c r="E359" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="0">
+        <v>359</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C360" s="0">
+        <v>0</v>
+      </c>
+      <c r="D360" s="0">
+        <v>30</v>
+      </c>
+      <c r="E360" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="0">
+        <v>360</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C361" s="0">
+        <v>0</v>
+      </c>
+      <c r="D361" s="0">
+        <v>30</v>
+      </c>
+      <c r="E361" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="0">
+        <v>361</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C362" s="0">
+        <v>0</v>
+      </c>
+      <c r="D362" s="0">
+        <v>24</v>
+      </c>
+      <c r="E362" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="0">
+        <v>362</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C363" s="0">
+        <v>0</v>
+      </c>
+      <c r="D363" s="0">
+        <v>25</v>
+      </c>
+      <c r="E363" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="0">
+        <v>363</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C364" s="0">
+        <v>0</v>
+      </c>
+      <c r="D364" s="0">
+        <v>26</v>
+      </c>
+      <c r="E364" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="0">
+        <v>364</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C365" s="0">
+        <v>0</v>
+      </c>
+      <c r="D365" s="0">
+        <v>25</v>
+      </c>
+      <c r="E365" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="0">
+        <v>365</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366" s="0">
+        <v>0</v>
+      </c>
+      <c r="D366" s="0">
+        <v>20</v>
+      </c>
+      <c r="E366" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="0">
+        <v>366</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C367" s="0">
+        <v>0</v>
+      </c>
+      <c r="D367" s="0">
+        <v>21</v>
+      </c>
+      <c r="E367" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="0">
+        <v>367</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C368" s="0">
+        <v>0</v>
+      </c>
+      <c r="D368" s="0">
+        <v>29</v>
+      </c>
+      <c r="E368" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="0">
+        <v>368</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C369" s="0">
+        <v>0</v>
+      </c>
+      <c r="D369" s="0">
+        <v>25</v>
+      </c>
+      <c r="E369" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="0">
+        <v>369</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370" s="0">
+        <v>0</v>
+      </c>
+      <c r="D370" s="0">
+        <v>24</v>
+      </c>
+      <c r="E370" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="0">
+        <v>370</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C371" s="0">
+        <v>0</v>
+      </c>
+      <c r="D371" s="0">
         <v>18</v>
       </c>
-      <c r="E66" s="0">
+      <c r="E371" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="0">
+        <v>371</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C372" s="0">
+        <v>0</v>
+      </c>
+      <c r="D372" s="0">
+        <v>26</v>
+      </c>
+      <c r="E372" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="0">
+        <v>372</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C373" s="0">
+        <v>1</v>
+      </c>
+      <c r="D373" s="0">
+        <v>18</v>
+      </c>
+      <c r="E373" s="0">
         <v>11</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="0">
+        <v>373</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C374" s="0">
+        <v>0</v>
+      </c>
+      <c r="D374" s="0">
+        <v>24</v>
+      </c>
+      <c r="E374" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="0">
+        <v>374</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C375" s="0">
+        <v>2</v>
+      </c>
+      <c r="D375" s="0">
+        <v>23</v>
+      </c>
+      <c r="E375" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="0">
+        <v>375</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C376" s="0">
+        <v>0</v>
+      </c>
+      <c r="D376" s="0">
+        <v>23</v>
+      </c>
+      <c r="E376" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="0">
+        <v>376</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C377" s="0">
+        <v>0</v>
+      </c>
+      <c r="D377" s="0">
+        <v>30</v>
+      </c>
+      <c r="E377" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="0">
+        <v>377</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C378" s="0">
+        <v>0</v>
+      </c>
+      <c r="D378" s="0">
+        <v>30</v>
+      </c>
+      <c r="E378" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="0">
+        <v>378</v>
+      </c>
+      <c r="B379" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C379" s="0">
+        <v>0</v>
+      </c>
+      <c r="D379" s="0">
+        <v>30</v>
+      </c>
+      <c r="E379" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="0">
+        <v>379</v>
+      </c>
+      <c r="B380" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C380" s="0">
+        <v>0</v>
+      </c>
+      <c r="D380" s="0">
+        <v>29</v>
+      </c>
+      <c r="E380" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="0">
+        <v>380</v>
+      </c>
+      <c r="B381" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C381" s="0">
+        <v>0</v>
+      </c>
+      <c r="D381" s="0">
+        <v>30</v>
+      </c>
+      <c r="E381" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="0">
+        <v>381</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C382" s="0">
+        <v>0</v>
+      </c>
+      <c r="D382" s="0">
+        <v>30</v>
+      </c>
+      <c r="E382" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="0">
+        <v>382</v>
+      </c>
+      <c r="B383" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C383" s="0">
+        <v>0</v>
+      </c>
+      <c r="D383" s="0">
+        <v>30</v>
+      </c>
+      <c r="E383" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="0">
+        <v>383</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C384" s="0">
+        <v>0</v>
+      </c>
+      <c r="D384" s="0">
+        <v>30</v>
+      </c>
+      <c r="E384" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="0">
+        <v>384</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C385" s="0">
+        <v>0</v>
+      </c>
+      <c r="D385" s="0">
+        <v>29</v>
+      </c>
+      <c r="E385" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0">
+        <v>385</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C386" s="0">
+        <v>0</v>
+      </c>
+      <c r="D386" s="0">
+        <v>30</v>
+      </c>
+      <c r="E386" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="0">
+        <v>386</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C387" s="0">
+        <v>0</v>
+      </c>
+      <c r="D387" s="0">
+        <v>29</v>
+      </c>
+      <c r="E387" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0">
+        <v>387</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C388" s="0">
+        <v>0</v>
+      </c>
+      <c r="D388" s="0">
+        <v>30</v>
+      </c>
+      <c r="E388" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0">
+        <v>388</v>
+      </c>
+      <c r="B389" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C389" s="0">
+        <v>0</v>
+      </c>
+      <c r="D389" s="0">
+        <v>30</v>
+      </c>
+      <c r="E389" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0">
+        <v>389</v>
+      </c>
+      <c r="B390" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C390" s="0">
+        <v>0</v>
+      </c>
+      <c r="D390" s="0">
+        <v>30</v>
+      </c>
+      <c r="E390" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0">
+        <v>390</v>
+      </c>
+      <c r="B391" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C391" s="0">
+        <v>0</v>
+      </c>
+      <c r="D391" s="0">
+        <v>30</v>
+      </c>
+      <c r="E391" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0">
+        <v>391</v>
+      </c>
+      <c r="B392" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C392" s="0">
+        <v>0</v>
+      </c>
+      <c r="D392" s="0">
+        <v>29</v>
+      </c>
+      <c r="E392" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0">
+        <v>392</v>
+      </c>
+      <c r="B393" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C393" s="0">
+        <v>0</v>
+      </c>
+      <c r="D393" s="0">
+        <v>30</v>
+      </c>
+      <c r="E393" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="0">
+        <v>393</v>
+      </c>
+      <c r="B394" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C394" s="0">
+        <v>0</v>
+      </c>
+      <c r="D394" s="0">
+        <v>30</v>
+      </c>
+      <c r="E394" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0">
+        <v>394</v>
+      </c>
+      <c r="B395" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C395" s="0">
+        <v>0</v>
+      </c>
+      <c r="D395" s="0">
+        <v>30</v>
+      </c>
+      <c r="E395" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0">
+        <v>395</v>
+      </c>
+      <c r="B396" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C396" s="0">
+        <v>0</v>
+      </c>
+      <c r="D396" s="0">
+        <v>30</v>
+      </c>
+      <c r="E396" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0">
+        <v>396</v>
+      </c>
+      <c r="B397" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C397" s="0">
+        <v>0</v>
+      </c>
+      <c r="D397" s="0">
+        <v>30</v>
+      </c>
+      <c r="E397" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0">
+        <v>397</v>
+      </c>
+      <c r="B398" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C398" s="0">
+        <v>0</v>
+      </c>
+      <c r="D398" s="0">
+        <v>30</v>
+      </c>
+      <c r="E398" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="0">
+        <v>398</v>
+      </c>
+      <c r="B399" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C399" s="0">
+        <v>0</v>
+      </c>
+      <c r="D399" s="0">
+        <v>30</v>
+      </c>
+      <c r="E399" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0">
+        <v>399</v>
+      </c>
+      <c r="B400" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C400" s="0">
+        <v>0</v>
+      </c>
+      <c r="D400" s="0">
+        <v>30</v>
+      </c>
+      <c r="E400" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0">
+        <v>400</v>
+      </c>
+      <c r="B401" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C401" s="0">
+        <v>0</v>
+      </c>
+      <c r="D401" s="0">
+        <v>30</v>
+      </c>
+      <c r="E401" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
